--- a/doc/template/nak_ku-2.xlsx
+++ b/doc/template/nak_ku-2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfk3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Музмарт\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5900" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -348,13 +348,13 @@
     <t>{year} года</t>
   </si>
   <si>
-    <t>ООО "Кайрос", ИНН 7203265990, 625033, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78, р/с 40702810000020012036, в банке Филиал № 6602 Банка ВТБ (ПАО) в г. Екатеринбурге, БИК 046577501, к/с 30101810165770000501</t>
+    <t>ООО "Кайрос", ИНН 7203265990, 625000, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78, р/с 40702810200020012036, в банке Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ ПАО Г. МОСКВА, БИК 044525411, к/с 30101810145250000411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1495,54 +1495,54 @@
   </sheetPr>
   <dimension ref="A1:AN53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB40" sqref="Z26:AJ40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:AH10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="0.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.44140625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="2.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="1.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="0.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="2.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5" style="1" customWidth="1"/>
     <col min="22" max="22" width="7.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="1" customWidth="1"/>
     <col min="24" max="24" width="4.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.77734375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="1.77734375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="1.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5" style="1" customWidth="1"/>
     <col min="29" max="29" width="0.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="1.44140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="1.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="1.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="1.1640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="7" style="1" customWidth="1"/>
     <col min="33" max="33" width="2" style="1" customWidth="1"/>
     <col min="34" max="34" width="4.33203125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="2.77734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="2.83203125" style="1" customWidth="1"/>
     <col min="36" max="36" width="6" style="1" customWidth="1"/>
     <col min="37" max="37" width="2" style="1" customWidth="1"/>
     <col min="38" max="38" width="12.6640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="0.109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="0.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="0.1640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="0.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>330212</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -1672,7 +1672,7 @@
         <v>92225735</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
@@ -1741,7 +1741,7 @@
       <c r="AH6" s="84"/>
       <c r="AL6" s="83"/>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="24" t="s">
         <v>4</v>
       </c>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="AL7" s="25"/>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="85" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>92225735</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
         <v>8</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="AL10" s="75"/>
     </row>
-    <row r="11" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="24" t="s">
         <v>7</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="22"/>
       <c r="C12" s="22" t="s">
         <v>9</v>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="AL12" s="75"/>
     </row>
-    <row r="13" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="AK13" s="79"/>
       <c r="AL13" s="75"/>
     </row>
-    <row r="14" spans="1:38" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
         <v>11</v>
@@ -2057,7 +2057,7 @@
       <c r="AK14" s="79"/>
       <c r="AL14" s="75"/>
     </row>
-    <row r="15" spans="1:38" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="24" t="s">
         <v>12</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="AK15" s="79"/>
       <c r="AL15" s="23"/>
     </row>
-    <row r="16" spans="1:38" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="88" t="s">
         <v>14</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="AK16" s="79"/>
       <c r="AL16" s="23"/>
     </row>
-    <row r="17" spans="1:39" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -2146,7 +2146,7 @@
       <c r="AK17" s="79"/>
       <c r="AL17" s="23"/>
     </row>
-    <row r="18" spans="1:39" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22" t="s">
         <v>17</v>
@@ -2160,7 +2160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="4" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" s="4" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="86" t="s">
         <v>19</v>
@@ -2223,7 +2223,7 @@
       <c r="AL20" s="86"/>
       <c r="AM20" s="86"/>
     </row>
-    <row r="21" spans="1:39" s="4" customFormat="1" ht="43.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" s="4" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="86"/>
       <c r="C21" s="86" t="s">
@@ -2351,7 +2351,7 @@
       <c r="AL22" s="96"/>
       <c r="AM22" s="96"/>
     </row>
-    <row r="23" spans="1:39" s="50" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" s="50" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51"/>
       <c r="B23" s="52" t="s">
         <v>90</v>
@@ -2412,7 +2412,7 @@
       <c r="AL23" s="104"/>
       <c r="AM23" s="104"/>
     </row>
-    <row r="24" spans="1:39" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2465,7 +2465,7 @@
       <c r="AL24" s="95"/>
       <c r="AM24" s="95"/>
     </row>
-    <row r="25" spans="1:39" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2513,7 +2513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="4" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="4" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="86" t="s">
         <v>19</v>
@@ -2576,7 +2576,7 @@
       <c r="AL27" s="86"/>
       <c r="AM27" s="86"/>
     </row>
-    <row r="28" spans="1:39" s="4" customFormat="1" ht="43.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" s="4" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="86"/>
       <c r="C28" s="86" t="s">
@@ -2704,7 +2704,7 @@
       <c r="AL29" s="96"/>
       <c r="AM29" s="96"/>
     </row>
-    <row r="30" spans="1:39" s="50" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" s="50" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="52" t="s">
         <v>91</v>
@@ -2765,7 +2765,7 @@
       <c r="AL30" s="104"/>
       <c r="AM30" s="104"/>
     </row>
-    <row r="31" spans="1:39" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -2818,7 +2818,7 @@
       <c r="AL31" s="114"/>
       <c r="AM31" s="114"/>
     </row>
-    <row r="32" spans="1:39" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="N32" s="36"/>
       <c r="O32" s="36"/>
@@ -2878,7 +2878,7 @@
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
     </row>
-    <row r="34" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>43</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F35" s="24" t="s">
         <v>45</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="AM36" s="71"/>
       <c r="AN36" s="72"/>
     </row>
-    <row r="37" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
       <c r="H37" s="80"/>
@@ -2993,7 +2993,7 @@
       <c r="AM38" s="71"/>
       <c r="AN38" s="72"/>
     </row>
-    <row r="39" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F39" s="116" t="s">
         <v>45</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:40" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:40" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>77</v>
@@ -3045,7 +3045,7 @@
       <c r="I42" s="116"/>
       <c r="S42" s="43"/>
     </row>
-    <row r="43" spans="1:40" s="1" customFormat="1" ht="10.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" s="1" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="17" t="s">
         <v>50</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="AM43" s="21"/>
       <c r="AN43" s="21"/>
     </row>
-    <row r="44" spans="1:40" ht="11.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" s="120" t="s">
         <v>78</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="Z44" s="24"/>
     </row>
-    <row r="45" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="116" t="s">
         <v>45</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="AM45" s="21"/>
       <c r="AN45" s="21"/>
     </row>
-    <row r="46" spans="1:40" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
@@ -3197,7 +3197,7 @@
       <c r="R47" s="118"/>
       <c r="S47" s="118"/>
     </row>
-    <row r="48" spans="1:40" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="17" t="s">
         <v>59</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="AM48" s="21"/>
       <c r="AN48" s="21"/>
     </row>
-    <row r="49" spans="1:40" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="G49" s="24" t="s">
         <v>57</v>
@@ -3274,7 +3274,7 @@
       <c r="AM49" s="116"/>
       <c r="AN49" s="116"/>
     </row>
-    <row r="50" spans="1:40" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
     </row>
-    <row r="51" spans="1:40" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="E51" s="47" t="s">
         <v>56</v>
@@ -3356,10 +3356,10 @@
       <c r="AM51" s="116"/>
       <c r="AN51" s="116"/>
     </row>
-    <row r="52" spans="1:40" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S52" s="43"/>
     </row>
-    <row r="53" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
       <c r="D53" s="36" t="s">
